--- a/Excel-XLSX/UN-RUS.xlsx
+++ b/Excel-XLSX/UN-RUS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="1297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="1311">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>75a7P1</t>
+    <t>4Q4o20</t>
   </si>
   <si>
     <t>1993</t>
@@ -3759,7 +3759,7 @@
     <t>2024</t>
   </si>
   <si>
-    <t>1136</t>
+    <t>996</t>
   </si>
   <si>
     <t>860</t>
@@ -3780,15 +3780,15 @@
     <t>865</t>
   </si>
   <si>
+    <t>866</t>
+  </si>
+  <si>
     <t>Bolivia (Plurinational State of)</t>
   </si>
   <si>
     <t>BOL</t>
   </si>
   <si>
-    <t>866</t>
-  </si>
-  <si>
     <t>867</t>
   </si>
   <si>
@@ -3831,6 +3831,15 @@
     <t>881</t>
   </si>
   <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>GRE</t>
+  </si>
+  <si>
+    <t>GRC</t>
+  </si>
+  <si>
     <t>882</t>
   </si>
   <si>
@@ -3846,6 +3855,12 @@
     <t>886</t>
   </si>
   <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
     <t>887</t>
   </si>
   <si>
@@ -3873,12 +3888,18 @@
     <t>895</t>
   </si>
   <si>
+    <t>Netherlands (Kingdom of the)</t>
+  </si>
+  <si>
+    <t>NET</t>
+  </si>
+  <si>
+    <t>NLD</t>
+  </si>
+  <si>
     <t>896</t>
   </si>
   <si>
-    <t>91483</t>
-  </si>
-  <si>
     <t>897</t>
   </si>
   <si>
@@ -3891,15 +3912,15 @@
     <t>900</t>
   </si>
   <si>
+    <t>90185</t>
+  </si>
+  <si>
     <t>903</t>
   </si>
   <si>
     <t>904</t>
   </si>
   <si>
-    <t>1223794</t>
-  </si>
-  <si>
     <t>905</t>
   </si>
   <si>
@@ -3907,6 +3928,27 @@
   </si>
   <si>
     <t>907</t>
+  </si>
+  <si>
+    <t>908</t>
+  </si>
+  <si>
+    <t>909</t>
+  </si>
+  <si>
+    <t>910</t>
+  </si>
+  <si>
+    <t>6894</t>
+  </si>
+  <si>
+    <t>911</t>
+  </si>
+  <si>
+    <t>912</t>
+  </si>
+  <si>
+    <t>913</t>
   </si>
 </sst>
 </file>
@@ -4291,7 +4333,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V908"/>
+  <dimension ref="A1:V914"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -62755,10 +62797,10 @@
         <v>1247</v>
       </c>
       <c r="O860" s="2" t="s">
-        <v>354</v>
+        <v>236</v>
       </c>
       <c r="P860" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="Q860" s="2" t="s">
         <v>31</v>
@@ -62823,7 +62865,7 @@
         <v>48</v>
       </c>
       <c r="O861" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="P861" s="2" t="s">
         <v>31</v>
@@ -62888,10 +62930,10 @@
         <v>30</v>
       </c>
       <c r="N862" s="2" t="s">
-        <v>60</v>
+        <v>182</v>
       </c>
       <c r="O862" s="2" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="P862" s="2" t="s">
         <v>31</v>
@@ -62932,16 +62974,16 @@
         <v>1246</v>
       </c>
       <c r="F863" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G863" s="1" t="s">
-        <v>91</v>
+        <v>1182</v>
       </c>
       <c r="H863" s="1" t="s">
-        <v>92</v>
+        <v>1183</v>
       </c>
       <c r="I863" s="1" t="s">
-        <v>92</v>
+        <v>1184</v>
       </c>
       <c r="J863" s="2" t="s">
         <v>28</v>
@@ -62956,7 +62998,7 @@
         <v>30</v>
       </c>
       <c r="N863" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="O863" s="2" t="s">
         <v>48</v>
@@ -63000,16 +63042,16 @@
         <v>1246</v>
       </c>
       <c r="F864" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="G864" s="1" t="s">
-        <v>545</v>
+        <v>91</v>
       </c>
       <c r="H864" s="1" t="s">
-        <v>546</v>
+        <v>92</v>
       </c>
       <c r="I864" s="1" t="s">
-        <v>546</v>
+        <v>92</v>
       </c>
       <c r="J864" s="2" t="s">
         <v>28</v>
@@ -63024,10 +63066,10 @@
         <v>30</v>
       </c>
       <c r="N864" s="2" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="O864" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="P864" s="2" t="s">
         <v>31</v>
@@ -63068,16 +63110,16 @@
         <v>1246</v>
       </c>
       <c r="F865" s="2" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="G865" s="1" t="s">
-        <v>96</v>
+        <v>545</v>
       </c>
       <c r="H865" s="1" t="s">
-        <v>97</v>
+        <v>546</v>
       </c>
       <c r="I865" s="1" t="s">
-        <v>97</v>
+        <v>546</v>
       </c>
       <c r="J865" s="2" t="s">
         <v>28</v>
@@ -63095,7 +63137,7 @@
         <v>48</v>
       </c>
       <c r="O865" s="2" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="P865" s="2" t="s">
         <v>31</v>
@@ -63136,16 +63178,16 @@
         <v>1246</v>
       </c>
       <c r="F866" s="2" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="G866" s="1" t="s">
-        <v>1254</v>
+        <v>96</v>
       </c>
       <c r="H866" s="1" t="s">
-        <v>1255</v>
+        <v>97</v>
       </c>
       <c r="I866" s="1" t="s">
-        <v>1255</v>
+        <v>97</v>
       </c>
       <c r="J866" s="2" t="s">
         <v>28</v>
@@ -63160,10 +63202,10 @@
         <v>30</v>
       </c>
       <c r="N866" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O866" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="O866" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="P866" s="2" t="s">
         <v>31</v>
@@ -63198,22 +63240,22 @@
         <v>22</v>
       </c>
       <c r="D867" s="2" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="E867" s="2" t="s">
         <v>1246</v>
       </c>
       <c r="F867" s="2" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="G867" s="1" t="s">
-        <v>1189</v>
+        <v>1255</v>
       </c>
       <c r="H867" s="1" t="s">
-        <v>1190</v>
+        <v>1256</v>
       </c>
       <c r="I867" s="1" t="s">
-        <v>1190</v>
+        <v>1256</v>
       </c>
       <c r="J867" s="2" t="s">
         <v>28</v>
@@ -63228,7 +63270,7 @@
         <v>30</v>
       </c>
       <c r="N867" s="2" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="O867" s="2" t="s">
         <v>31</v>
@@ -63272,16 +63314,16 @@
         <v>1246</v>
       </c>
       <c r="F868" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="G868" s="1" t="s">
-        <v>495</v>
+        <v>1189</v>
       </c>
       <c r="H868" s="1" t="s">
-        <v>496</v>
+        <v>1190</v>
       </c>
       <c r="I868" s="1" t="s">
-        <v>497</v>
+        <v>1190</v>
       </c>
       <c r="J868" s="2" t="s">
         <v>28</v>
@@ -63296,7 +63338,7 @@
         <v>30</v>
       </c>
       <c r="N868" s="2" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="O868" s="2" t="s">
         <v>31</v>
@@ -63340,16 +63382,16 @@
         <v>1246</v>
       </c>
       <c r="F869" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G869" s="1" t="s">
-        <v>886</v>
+        <v>495</v>
       </c>
       <c r="H869" s="1" t="s">
-        <v>887</v>
+        <v>496</v>
       </c>
       <c r="I869" s="1" t="s">
-        <v>887</v>
+        <v>497</v>
       </c>
       <c r="J869" s="2" t="s">
         <v>28</v>
@@ -63364,10 +63406,10 @@
         <v>30</v>
       </c>
       <c r="N869" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="O869" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="P869" s="2" t="s">
         <v>31</v>
@@ -63408,16 +63450,16 @@
         <v>1246</v>
       </c>
       <c r="F870" s="2" t="s">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="G870" s="1" t="s">
-        <v>68</v>
+        <v>886</v>
       </c>
       <c r="H870" s="1" t="s">
-        <v>69</v>
+        <v>887</v>
       </c>
       <c r="I870" s="1" t="s">
-        <v>69</v>
+        <v>887</v>
       </c>
       <c r="J870" s="2" t="s">
         <v>28</v>
@@ -63432,10 +63474,10 @@
         <v>30</v>
       </c>
       <c r="N870" s="2" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="O870" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="P870" s="2" t="s">
         <v>31</v>
@@ -63476,16 +63518,16 @@
         <v>1246</v>
       </c>
       <c r="F871" s="2" t="s">
-        <v>176</v>
+        <v>60</v>
       </c>
       <c r="G871" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H871" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I871" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="J871" s="2" t="s">
         <v>28</v>
@@ -63500,10 +63542,10 @@
         <v>30</v>
       </c>
       <c r="N871" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="O871" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="P871" s="2" t="s">
         <v>31</v>
@@ -63544,16 +63586,16 @@
         <v>1246</v>
       </c>
       <c r="F872" s="2" t="s">
-        <v>181</v>
+        <v>67</v>
       </c>
       <c r="G872" s="1" t="s">
-        <v>1196</v>
+        <v>68</v>
       </c>
       <c r="H872" s="1" t="s">
-        <v>1197</v>
+        <v>69</v>
       </c>
       <c r="I872" s="1" t="s">
-        <v>1197</v>
+        <v>69</v>
       </c>
       <c r="J872" s="2" t="s">
         <v>28</v>
@@ -63568,10 +63610,10 @@
         <v>30</v>
       </c>
       <c r="N872" s="2" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="O872" s="2" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="P872" s="2" t="s">
         <v>31</v>
@@ -63612,16 +63654,16 @@
         <v>1246</v>
       </c>
       <c r="F873" s="2" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="G873" s="1" t="s">
-        <v>101</v>
+        <v>432</v>
       </c>
       <c r="H873" s="1" t="s">
-        <v>102</v>
+        <v>433</v>
       </c>
       <c r="I873" s="1" t="s">
-        <v>102</v>
+        <v>433</v>
       </c>
       <c r="J873" s="2" t="s">
         <v>28</v>
@@ -63636,10 +63678,10 @@
         <v>30</v>
       </c>
       <c r="N873" s="2" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="O873" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="P873" s="2" t="s">
         <v>31</v>
@@ -63680,16 +63722,16 @@
         <v>1246</v>
       </c>
       <c r="F874" s="2" t="s">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="G874" s="1" t="s">
-        <v>72</v>
+        <v>1196</v>
       </c>
       <c r="H874" s="1" t="s">
-        <v>73</v>
+        <v>1197</v>
       </c>
       <c r="I874" s="1" t="s">
-        <v>73</v>
+        <v>1197</v>
       </c>
       <c r="J874" s="2" t="s">
         <v>28</v>
@@ -63704,10 +63746,10 @@
         <v>30</v>
       </c>
       <c r="N874" s="2" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="O874" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="P874" s="2" t="s">
         <v>31</v>
@@ -63748,16 +63790,16 @@
         <v>1246</v>
       </c>
       <c r="F875" s="2" t="s">
-        <v>208</v>
+        <v>100</v>
       </c>
       <c r="G875" s="1" t="s">
-        <v>1201</v>
+        <v>101</v>
       </c>
       <c r="H875" s="1" t="s">
-        <v>1202</v>
+        <v>102</v>
       </c>
       <c r="I875" s="1" t="s">
-        <v>1202</v>
+        <v>102</v>
       </c>
       <c r="J875" s="2" t="s">
         <v>28</v>
@@ -63772,10 +63814,10 @@
         <v>30</v>
       </c>
       <c r="N875" s="2" t="s">
-        <v>66</v>
+        <v>173</v>
       </c>
       <c r="O875" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="P875" s="2" t="s">
         <v>31</v>
@@ -63816,16 +63858,16 @@
         <v>1246</v>
       </c>
       <c r="F876" s="2" t="s">
-        <v>223</v>
+        <v>71</v>
       </c>
       <c r="G876" s="1" t="s">
-        <v>464</v>
+        <v>72</v>
       </c>
       <c r="H876" s="1" t="s">
-        <v>465</v>
+        <v>73</v>
       </c>
       <c r="I876" s="1" t="s">
-        <v>466</v>
+        <v>73</v>
       </c>
       <c r="J876" s="2" t="s">
         <v>28</v>
@@ -63840,10 +63882,10 @@
         <v>30</v>
       </c>
       <c r="N876" s="2" t="s">
-        <v>410</v>
+        <v>31</v>
       </c>
       <c r="O876" s="2" t="s">
-        <v>176</v>
+        <v>48</v>
       </c>
       <c r="P876" s="2" t="s">
         <v>31</v>
@@ -63884,16 +63926,16 @@
         <v>1246</v>
       </c>
       <c r="F877" s="2" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="G877" s="1" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="H877" s="1" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="I877" s="1" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="J877" s="2" t="s">
         <v>28</v>
@@ -63908,7 +63950,7 @@
         <v>30</v>
       </c>
       <c r="N877" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O877" s="2" t="s">
         <v>31</v>
@@ -63952,16 +63994,16 @@
         <v>1246</v>
       </c>
       <c r="F878" s="2" t="s">
-        <v>105</v>
+        <v>223</v>
       </c>
       <c r="G878" s="1" t="s">
-        <v>106</v>
+        <v>464</v>
       </c>
       <c r="H878" s="1" t="s">
-        <v>107</v>
+        <v>465</v>
       </c>
       <c r="I878" s="1" t="s">
-        <v>107</v>
+        <v>466</v>
       </c>
       <c r="J878" s="2" t="s">
         <v>28</v>
@@ -63976,10 +64018,10 @@
         <v>30</v>
       </c>
       <c r="N878" s="2" t="s">
-        <v>330</v>
+        <v>563</v>
       </c>
       <c r="O878" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="P878" s="2" t="s">
         <v>31</v>
@@ -64020,16 +64062,16 @@
         <v>1246</v>
       </c>
       <c r="F879" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G879" s="1" t="s">
-        <v>932</v>
+        <v>1205</v>
       </c>
       <c r="H879" s="1" t="s">
-        <v>933</v>
+        <v>1206</v>
       </c>
       <c r="I879" s="1" t="s">
-        <v>934</v>
+        <v>1206</v>
       </c>
       <c r="J879" s="2" t="s">
         <v>28</v>
@@ -64044,10 +64086,10 @@
         <v>30</v>
       </c>
       <c r="N879" s="2" t="s">
-        <v>409</v>
+        <v>94</v>
       </c>
       <c r="O879" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="P879" s="2" t="s">
         <v>31</v>
@@ -64088,16 +64130,16 @@
         <v>1246</v>
       </c>
       <c r="F880" s="2" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="G880" s="1" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="H880" s="1" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="I880" s="1" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="J880" s="2" t="s">
         <v>28</v>
@@ -64112,10 +64154,10 @@
         <v>30</v>
       </c>
       <c r="N880" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="O880" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="O880" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="P880" s="2" t="s">
         <v>31</v>
@@ -64156,16 +64198,16 @@
         <v>1246</v>
       </c>
       <c r="F881" s="2" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="G881" s="1" t="s">
-        <v>509</v>
+        <v>932</v>
       </c>
       <c r="H881" s="1" t="s">
-        <v>510</v>
+        <v>933</v>
       </c>
       <c r="I881" s="1" t="s">
-        <v>510</v>
+        <v>934</v>
       </c>
       <c r="J881" s="2" t="s">
         <v>28</v>
@@ -64180,10 +64222,10 @@
         <v>30</v>
       </c>
       <c r="N881" s="2" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="O881" s="2" t="s">
-        <v>31</v>
+        <v>200</v>
       </c>
       <c r="P881" s="2" t="s">
         <v>31</v>
@@ -64224,16 +64266,16 @@
         <v>1246</v>
       </c>
       <c r="F882" s="2" t="s">
-        <v>44</v>
+        <v>237</v>
       </c>
       <c r="G882" s="1" t="s">
-        <v>45</v>
+        <v>1271</v>
       </c>
       <c r="H882" s="1" t="s">
-        <v>46</v>
+        <v>1272</v>
       </c>
       <c r="I882" s="1" t="s">
-        <v>46</v>
+        <v>1273</v>
       </c>
       <c r="J882" s="2" t="s">
         <v>28</v>
@@ -64248,7 +64290,7 @@
         <v>30</v>
       </c>
       <c r="N882" s="2" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="O882" s="2" t="s">
         <v>31</v>
@@ -64286,22 +64328,22 @@
         <v>22</v>
       </c>
       <c r="D883" s="2" t="s">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="E883" s="2" t="s">
         <v>1246</v>
       </c>
       <c r="F883" s="2" t="s">
-        <v>268</v>
+        <v>38</v>
       </c>
       <c r="G883" s="1" t="s">
-        <v>513</v>
+        <v>39</v>
       </c>
       <c r="H883" s="1" t="s">
-        <v>514</v>
+        <v>40</v>
       </c>
       <c r="I883" s="1" t="s">
-        <v>514</v>
+        <v>41</v>
       </c>
       <c r="J883" s="2" t="s">
         <v>28</v>
@@ -64316,7 +64358,7 @@
         <v>30</v>
       </c>
       <c r="N883" s="2" t="s">
-        <v>213</v>
+        <v>48</v>
       </c>
       <c r="O883" s="2" t="s">
         <v>48</v>
@@ -64354,22 +64396,22 @@
         <v>22</v>
       </c>
       <c r="D884" s="2" t="s">
-        <v>1272</v>
+        <v>1275</v>
       </c>
       <c r="E884" s="2" t="s">
         <v>1246</v>
       </c>
       <c r="F884" s="2" t="s">
-        <v>109</v>
+        <v>265</v>
       </c>
       <c r="G884" s="1" t="s">
-        <v>110</v>
+        <v>509</v>
       </c>
       <c r="H884" s="1" t="s">
-        <v>111</v>
+        <v>510</v>
       </c>
       <c r="I884" s="1" t="s">
-        <v>111</v>
+        <v>510</v>
       </c>
       <c r="J884" s="2" t="s">
         <v>28</v>
@@ -64384,10 +64426,10 @@
         <v>30</v>
       </c>
       <c r="N884" s="2" t="s">
-        <v>264</v>
+        <v>42</v>
       </c>
       <c r="O884" s="2" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="P884" s="2" t="s">
         <v>31</v>
@@ -64422,22 +64464,22 @@
         <v>22</v>
       </c>
       <c r="D885" s="2" t="s">
-        <v>1273</v>
+        <v>1276</v>
       </c>
       <c r="E885" s="2" t="s">
         <v>1246</v>
       </c>
       <c r="F885" s="2" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="G885" s="1" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="H885" s="1" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="I885" s="1" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="J885" s="2" t="s">
         <v>28</v>
@@ -64452,10 +64494,10 @@
         <v>30</v>
       </c>
       <c r="N885" s="2" t="s">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="O885" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="P885" s="2" t="s">
         <v>31</v>
@@ -64490,22 +64532,22 @@
         <v>22</v>
       </c>
       <c r="D886" s="2" t="s">
-        <v>1274</v>
+        <v>1277</v>
       </c>
       <c r="E886" s="2" t="s">
         <v>1246</v>
       </c>
       <c r="F886" s="2" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="G886" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="H886" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="I886" s="1" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="J886" s="2" t="s">
         <v>28</v>
@@ -64520,10 +64562,10 @@
         <v>30</v>
       </c>
       <c r="N886" s="2" t="s">
-        <v>131</v>
+        <v>276</v>
       </c>
       <c r="O886" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="P886" s="2" t="s">
         <v>31</v>
@@ -64558,22 +64600,22 @@
         <v>22</v>
       </c>
       <c r="D887" s="2" t="s">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="E887" s="2" t="s">
         <v>1246</v>
       </c>
       <c r="F887" s="2" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="G887" s="1" t="s">
-        <v>899</v>
+        <v>1279</v>
       </c>
       <c r="H887" s="1" t="s">
-        <v>900</v>
+        <v>1280</v>
       </c>
       <c r="I887" s="1" t="s">
-        <v>900</v>
+        <v>1280</v>
       </c>
       <c r="J887" s="2" t="s">
         <v>28</v>
@@ -64626,22 +64668,22 @@
         <v>22</v>
       </c>
       <c r="D888" s="2" t="s">
-        <v>1276</v>
+        <v>1281</v>
       </c>
       <c r="E888" s="2" t="s">
         <v>1246</v>
       </c>
       <c r="F888" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="G888" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H888" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I888" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="J888" s="2" t="s">
         <v>28</v>
@@ -64656,10 +64698,10 @@
         <v>30</v>
       </c>
       <c r="N888" s="2" t="s">
-        <v>139</v>
+        <v>312</v>
       </c>
       <c r="O888" s="2" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="P888" s="2" t="s">
         <v>31</v>
@@ -64694,22 +64736,22 @@
         <v>22</v>
       </c>
       <c r="D889" s="2" t="s">
-        <v>1277</v>
+        <v>1282</v>
       </c>
       <c r="E889" s="2" t="s">
         <v>1246</v>
       </c>
       <c r="F889" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="G889" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="H889" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="I889" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="J889" s="2" t="s">
         <v>28</v>
@@ -64724,10 +64766,10 @@
         <v>30</v>
       </c>
       <c r="N889" s="2" t="s">
-        <v>233</v>
+        <v>25</v>
       </c>
       <c r="O889" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="P889" s="2" t="s">
         <v>31</v>
@@ -64762,22 +64804,22 @@
         <v>22</v>
       </c>
       <c r="D890" s="2" t="s">
-        <v>1278</v>
+        <v>1283</v>
       </c>
       <c r="E890" s="2" t="s">
         <v>1246</v>
       </c>
       <c r="F890" s="2" t="s">
-        <v>127</v>
+        <v>291</v>
       </c>
       <c r="G890" s="1" t="s">
-        <v>128</v>
+        <v>899</v>
       </c>
       <c r="H890" s="1" t="s">
-        <v>129</v>
+        <v>900</v>
       </c>
       <c r="I890" s="1" t="s">
-        <v>129</v>
+        <v>900</v>
       </c>
       <c r="J890" s="2" t="s">
         <v>28</v>
@@ -64792,10 +64834,10 @@
         <v>30</v>
       </c>
       <c r="N890" s="2" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="O890" s="2" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="P890" s="2" t="s">
         <v>31</v>
@@ -64830,22 +64872,22 @@
         <v>22</v>
       </c>
       <c r="D891" s="2" t="s">
-        <v>1279</v>
+        <v>1284</v>
       </c>
       <c r="E891" s="2" t="s">
         <v>1246</v>
       </c>
       <c r="F891" s="2" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="G891" s="1" t="s">
-        <v>1221</v>
+        <v>437</v>
       </c>
       <c r="H891" s="1" t="s">
-        <v>1222</v>
+        <v>438</v>
       </c>
       <c r="I891" s="1" t="s">
-        <v>1222</v>
+        <v>439</v>
       </c>
       <c r="J891" s="2" t="s">
         <v>28</v>
@@ -64860,10 +64902,10 @@
         <v>30</v>
       </c>
       <c r="N891" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O891" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="O891" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="P891" s="2" t="s">
         <v>31</v>
@@ -64898,22 +64940,22 @@
         <v>22</v>
       </c>
       <c r="D892" s="2" t="s">
-        <v>1280</v>
+        <v>1285</v>
       </c>
       <c r="E892" s="2" t="s">
         <v>1246</v>
       </c>
       <c r="F892" s="2" t="s">
-        <v>355</v>
+        <v>117</v>
       </c>
       <c r="G892" s="1" t="s">
-        <v>1224</v>
+        <v>118</v>
       </c>
       <c r="H892" s="1" t="s">
-        <v>1225</v>
+        <v>119</v>
       </c>
       <c r="I892" s="1" t="s">
-        <v>1225</v>
+        <v>119</v>
       </c>
       <c r="J892" s="2" t="s">
         <v>28</v>
@@ -64928,10 +64970,10 @@
         <v>30</v>
       </c>
       <c r="N892" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O892" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="O892" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="P892" s="2" t="s">
         <v>31</v>
@@ -64966,22 +65008,22 @@
         <v>22</v>
       </c>
       <c r="D893" s="2" t="s">
-        <v>1281</v>
+        <v>1286</v>
       </c>
       <c r="E893" s="2" t="s">
         <v>1246</v>
       </c>
       <c r="F893" s="2" t="s">
-        <v>303</v>
+        <v>122</v>
       </c>
       <c r="G893" s="1" t="s">
-        <v>475</v>
+        <v>123</v>
       </c>
       <c r="H893" s="1" t="s">
-        <v>476</v>
+        <v>124</v>
       </c>
       <c r="I893" s="1" t="s">
-        <v>476</v>
+        <v>124</v>
       </c>
       <c r="J893" s="2" t="s">
         <v>28</v>
@@ -64996,10 +65038,10 @@
         <v>30</v>
       </c>
       <c r="N893" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="O893" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="O893" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="P893" s="2" t="s">
         <v>31</v>
@@ -65034,22 +65076,22 @@
         <v>22</v>
       </c>
       <c r="D894" s="2" t="s">
-        <v>1282</v>
+        <v>1287</v>
       </c>
       <c r="E894" s="2" t="s">
         <v>1246</v>
       </c>
       <c r="F894" s="2" t="s">
-        <v>290</v>
+        <v>127</v>
       </c>
       <c r="G894" s="1" t="s">
-        <v>1073</v>
+        <v>128</v>
       </c>
       <c r="H894" s="1" t="s">
-        <v>1074</v>
+        <v>129</v>
       </c>
       <c r="I894" s="1" t="s">
-        <v>1075</v>
+        <v>129</v>
       </c>
       <c r="J894" s="2" t="s">
         <v>28</v>
@@ -65064,10 +65106,10 @@
         <v>30</v>
       </c>
       <c r="N894" s="2" t="s">
-        <v>48</v>
+        <v>237</v>
       </c>
       <c r="O894" s="2" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="P894" s="2" t="s">
         <v>31</v>
@@ -65102,22 +65144,22 @@
         <v>22</v>
       </c>
       <c r="D895" s="2" t="s">
-        <v>1283</v>
+        <v>1288</v>
       </c>
       <c r="E895" s="2" t="s">
         <v>1246</v>
       </c>
       <c r="F895" s="2" t="s">
-        <v>203</v>
+        <v>336</v>
       </c>
       <c r="G895" s="1" t="s">
-        <v>1159</v>
+        <v>1221</v>
       </c>
       <c r="H895" s="1" t="s">
-        <v>1160</v>
+        <v>1222</v>
       </c>
       <c r="I895" s="1" t="s">
-        <v>1160</v>
+        <v>1222</v>
       </c>
       <c r="J895" s="2" t="s">
         <v>28</v>
@@ -65132,7 +65174,7 @@
         <v>30</v>
       </c>
       <c r="N895" s="2" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="O895" s="2" t="s">
         <v>31</v>
@@ -65170,22 +65212,22 @@
         <v>22</v>
       </c>
       <c r="D896" s="2" t="s">
-        <v>1284</v>
+        <v>1289</v>
       </c>
       <c r="E896" s="2" t="s">
         <v>1246</v>
       </c>
       <c r="F896" s="2" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="G896" s="1" t="s">
-        <v>675</v>
+        <v>1290</v>
       </c>
       <c r="H896" s="1" t="s">
-        <v>676</v>
+        <v>1291</v>
       </c>
       <c r="I896" s="1" t="s">
-        <v>676</v>
+        <v>1292</v>
       </c>
       <c r="J896" s="2" t="s">
         <v>28</v>
@@ -65200,10 +65242,10 @@
         <v>30</v>
       </c>
       <c r="N896" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="O896" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="P896" s="2" t="s">
         <v>31</v>
@@ -65238,22 +65280,22 @@
         <v>22</v>
       </c>
       <c r="D897" s="2" t="s">
-        <v>1285</v>
+        <v>1293</v>
       </c>
       <c r="E897" s="2" t="s">
         <v>1246</v>
       </c>
       <c r="F897" s="2" t="s">
-        <v>214</v>
+        <v>350</v>
       </c>
       <c r="G897" s="1" t="s">
-        <v>215</v>
+        <v>471</v>
       </c>
       <c r="H897" s="1" t="s">
-        <v>216</v>
+        <v>472</v>
       </c>
       <c r="I897" s="1" t="s">
-        <v>217</v>
+        <v>473</v>
       </c>
       <c r="J897" s="2" t="s">
         <v>28</v>
@@ -65268,7 +65310,7 @@
         <v>30</v>
       </c>
       <c r="N897" s="2" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="O897" s="2" t="s">
         <v>48</v>
@@ -65283,7 +65325,7 @@
         <v>31</v>
       </c>
       <c r="S897" s="2" t="s">
-        <v>1286</v>
+        <v>31</v>
       </c>
       <c r="T897" s="2" t="s">
         <v>31</v>
@@ -65306,22 +65348,22 @@
         <v>22</v>
       </c>
       <c r="D898" s="2" t="s">
-        <v>1287</v>
+        <v>1294</v>
       </c>
       <c r="E898" s="2" t="s">
         <v>1246</v>
       </c>
       <c r="F898" s="2" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="G898" s="1" t="s">
-        <v>308</v>
+        <v>1224</v>
       </c>
       <c r="H898" s="1" t="s">
-        <v>309</v>
+        <v>1225</v>
       </c>
       <c r="I898" s="1" t="s">
-        <v>310</v>
+        <v>1225</v>
       </c>
       <c r="J898" s="2" t="s">
         <v>28</v>
@@ -65336,10 +65378,10 @@
         <v>30</v>
       </c>
       <c r="N898" s="2" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="O898" s="2" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="P898" s="2" t="s">
         <v>31</v>
@@ -65374,22 +65416,22 @@
         <v>22</v>
       </c>
       <c r="D899" s="2" t="s">
-        <v>1288</v>
+        <v>1295</v>
       </c>
       <c r="E899" s="2" t="s">
         <v>1246</v>
       </c>
       <c r="F899" s="2" t="s">
-        <v>398</v>
+        <v>303</v>
       </c>
       <c r="G899" s="1" t="s">
-        <v>1234</v>
+        <v>475</v>
       </c>
       <c r="H899" s="1" t="s">
-        <v>1235</v>
+        <v>476</v>
       </c>
       <c r="I899" s="1" t="s">
-        <v>1235</v>
+        <v>476</v>
       </c>
       <c r="J899" s="2" t="s">
         <v>28</v>
@@ -65407,7 +65449,7 @@
         <v>48</v>
       </c>
       <c r="O899" s="2" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="P899" s="2" t="s">
         <v>31</v>
@@ -65442,22 +65484,22 @@
         <v>22</v>
       </c>
       <c r="D900" s="2" t="s">
-        <v>1289</v>
+        <v>1296</v>
       </c>
       <c r="E900" s="2" t="s">
         <v>1246</v>
       </c>
       <c r="F900" s="2" t="s">
-        <v>408</v>
+        <v>290</v>
       </c>
       <c r="G900" s="1" t="s">
-        <v>583</v>
+        <v>1073</v>
       </c>
       <c r="H900" s="1" t="s">
-        <v>584</v>
+        <v>1074</v>
       </c>
       <c r="I900" s="1" t="s">
-        <v>584</v>
+        <v>1075</v>
       </c>
       <c r="J900" s="2" t="s">
         <v>28</v>
@@ -65472,10 +65514,10 @@
         <v>30</v>
       </c>
       <c r="N900" s="2" t="s">
-        <v>354</v>
+        <v>64</v>
       </c>
       <c r="O900" s="2" t="s">
-        <v>211</v>
+        <v>31</v>
       </c>
       <c r="P900" s="2" t="s">
         <v>31</v>
@@ -65510,22 +65552,22 @@
         <v>22</v>
       </c>
       <c r="D901" s="2" t="s">
-        <v>1290</v>
+        <v>1297</v>
       </c>
       <c r="E901" s="2" t="s">
         <v>1246</v>
       </c>
       <c r="F901" s="2" t="s">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="G901" s="1" t="s">
-        <v>136</v>
+        <v>1159</v>
       </c>
       <c r="H901" s="1" t="s">
-        <v>137</v>
+        <v>1160</v>
       </c>
       <c r="I901" s="1" t="s">
-        <v>137</v>
+        <v>1160</v>
       </c>
       <c r="J901" s="2" t="s">
         <v>28</v>
@@ -65540,10 +65582,10 @@
         <v>30</v>
       </c>
       <c r="N901" s="2" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="O901" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="P901" s="2" t="s">
         <v>31</v>
@@ -65584,16 +65626,16 @@
         <v>1246</v>
       </c>
       <c r="F902" s="2" t="s">
-        <v>140</v>
+        <v>379</v>
       </c>
       <c r="G902" s="1" t="s">
-        <v>141</v>
+        <v>675</v>
       </c>
       <c r="H902" s="1" t="s">
-        <v>142</v>
+        <v>676</v>
       </c>
       <c r="I902" s="1" t="s">
-        <v>142</v>
+        <v>676</v>
       </c>
       <c r="J902" s="2" t="s">
         <v>28</v>
@@ -65608,10 +65650,10 @@
         <v>30</v>
       </c>
       <c r="N902" s="2" t="s">
-        <v>162</v>
+        <v>50</v>
       </c>
       <c r="O902" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="P902" s="2" t="s">
         <v>31</v>
@@ -65652,16 +65694,16 @@
         <v>1246</v>
       </c>
       <c r="F903" s="2" t="s">
-        <v>426</v>
+        <v>214</v>
       </c>
       <c r="G903" s="1" t="s">
-        <v>683</v>
+        <v>215</v>
       </c>
       <c r="H903" s="1" t="s">
-        <v>684</v>
+        <v>216</v>
       </c>
       <c r="I903" s="1" t="s">
-        <v>684</v>
+        <v>217</v>
       </c>
       <c r="J903" s="2" t="s">
         <v>28</v>
@@ -65676,10 +65718,10 @@
         <v>30</v>
       </c>
       <c r="N903" s="2" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="O903" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="P903" s="2" t="s">
         <v>31</v>
@@ -65691,7 +65733,7 @@
         <v>31</v>
       </c>
       <c r="S903" s="2" t="s">
-        <v>31</v>
+        <v>1298</v>
       </c>
       <c r="T903" s="2" t="s">
         <v>31</v>
@@ -65714,22 +65756,22 @@
         <v>22</v>
       </c>
       <c r="D904" s="2" t="s">
-        <v>1291</v>
+        <v>1299</v>
       </c>
       <c r="E904" s="2" t="s">
         <v>1246</v>
       </c>
       <c r="F904" s="2" t="s">
-        <v>51</v>
+        <v>307</v>
       </c>
       <c r="G904" s="1" t="s">
-        <v>52</v>
+        <v>308</v>
       </c>
       <c r="H904" s="1" t="s">
-        <v>53</v>
+        <v>309</v>
       </c>
       <c r="I904" s="1" t="s">
-        <v>54</v>
+        <v>310</v>
       </c>
       <c r="J904" s="2" t="s">
         <v>28</v>
@@ -65744,10 +65786,10 @@
         <v>30</v>
       </c>
       <c r="N904" s="2" t="s">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="O904" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P904" s="2" t="s">
         <v>31</v>
@@ -65782,22 +65824,22 @@
         <v>22</v>
       </c>
       <c r="D905" s="2" t="s">
-        <v>1292</v>
+        <v>1300</v>
       </c>
       <c r="E905" s="2" t="s">
         <v>1246</v>
       </c>
       <c r="F905" s="2" t="s">
-        <v>145</v>
+        <v>398</v>
       </c>
       <c r="G905" s="1" t="s">
-        <v>146</v>
+        <v>1234</v>
       </c>
       <c r="H905" s="1" t="s">
-        <v>147</v>
+        <v>1235</v>
       </c>
       <c r="I905" s="1" t="s">
-        <v>147</v>
+        <v>1235</v>
       </c>
       <c r="J905" s="2" t="s">
         <v>28</v>
@@ -65812,10 +65854,10 @@
         <v>30</v>
       </c>
       <c r="N905" s="2" t="s">
-        <v>1293</v>
+        <v>48</v>
       </c>
       <c r="O905" s="2" t="s">
-        <v>662</v>
+        <v>31</v>
       </c>
       <c r="P905" s="2" t="s">
         <v>31</v>
@@ -65850,22 +65892,22 @@
         <v>22</v>
       </c>
       <c r="D906" s="2" t="s">
-        <v>1294</v>
+        <v>1301</v>
       </c>
       <c r="E906" s="2" t="s">
         <v>1246</v>
       </c>
       <c r="F906" s="2" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
       <c r="G906" s="1" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="H906" s="1" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="I906" s="1" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="J906" s="2" t="s">
         <v>28</v>
@@ -65880,10 +65922,10 @@
         <v>30</v>
       </c>
       <c r="N906" s="2" t="s">
-        <v>55</v>
+        <v>351</v>
       </c>
       <c r="O906" s="2" t="s">
-        <v>50</v>
+        <v>1065</v>
       </c>
       <c r="P906" s="2" t="s">
         <v>31</v>
@@ -65918,22 +65960,22 @@
         <v>22</v>
       </c>
       <c r="D907" s="2" t="s">
-        <v>1295</v>
+        <v>1302</v>
       </c>
       <c r="E907" s="2" t="s">
         <v>1246</v>
       </c>
       <c r="F907" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="G907" s="1" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="H907" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="I907" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="J907" s="2" t="s">
         <v>28</v>
@@ -65948,10 +65990,10 @@
         <v>30</v>
       </c>
       <c r="N907" s="2" t="s">
-        <v>330</v>
+        <v>157</v>
       </c>
       <c r="O907" s="2" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="P907" s="2" t="s">
         <v>31</v>
@@ -65986,60 +66028,468 @@
         <v>22</v>
       </c>
       <c r="D908" s="2" t="s">
-        <v>1296</v>
+        <v>1303</v>
       </c>
       <c r="E908" s="2" t="s">
         <v>1246</v>
       </c>
       <c r="F908" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G908" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H908" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I908" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J908" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K908" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L908" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M908" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N908" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="O908" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P908" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q908" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R908" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S908" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T908" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U908" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V908" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B909" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C909" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D909" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E909" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F909" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="G909" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="H909" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="I909" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="J909" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K909" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L909" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M909" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N909" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O909" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P909" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q909" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R909" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S909" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T909" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U909" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V909" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B910" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C910" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D910" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E910" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F910" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G910" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H910" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I910" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J910" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K910" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L910" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M910" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N910" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="O910" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P910" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q910" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R910" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S910" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T910" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U910" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V910" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B911" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C911" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D911" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E911" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F911" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G911" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H911" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I911" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J911" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K911" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L911" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M911" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N911" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="O911" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="P911" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q911" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R911" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S911" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T911" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U911" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V911" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B912" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C912" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D912" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E912" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F912" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="G912" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="H912" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="I912" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="J912" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K912" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L912" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M912" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N912" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O912" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P912" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q912" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R912" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S912" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T912" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U912" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V912" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B913" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C913" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D913" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E913" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F913" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G913" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H913" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I913" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J913" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K913" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L913" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M913" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N913" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O913" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P913" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q913" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R913" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S913" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T913" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U913" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V913" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B914" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C914" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D914" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E914" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F914" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="G908" s="1" t="s">
+      <c r="G914" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="H908" s="1" t="s">
+      <c r="H914" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="I908" s="1" t="s">
+      <c r="I914" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="J908" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K908" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L908" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M908" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N908" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="O908" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P908" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q908" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R908" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S908" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T908" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U908" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V908" s="2" t="s">
+      <c r="J914" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K914" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L914" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M914" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N914" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="O914" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P914" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q914" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R914" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S914" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T914" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U914" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V914" s="2" t="s">
         <v>31</v>
       </c>
     </row>
